--- a/data/raw/bigger-bass-splash.xlsx
+++ b/data/raw/bigger-bass-splash.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -448,9 +448,33 @@
         <v>2025-08-12 19:18:58.430</v>
       </c>
     </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>Bigger Bass Splash</v>
+      </c>
+      <c r="B4" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+53.02%</v>
+      </c>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+100.7%</v>
+      </c>
+      <c r="D4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+91.37%</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.5%</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2025-08-12 19:35:13.497</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/bigger-bass-splash.xlsx
+++ b/data/raw/bigger-bass-splash.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,9 +472,33 @@
         <v>2025-08-12 19:35:13.497</v>
       </c>
     </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>Bigger Bass Splash</v>
+      </c>
+      <c r="B5" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+53.02%</v>
+      </c>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+100.7%</v>
+      </c>
+      <c r="D5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+91.37%</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.5%</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2025-08-12 19:43:18.327</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/bigger-bass-splash.xlsx
+++ b/data/raw/bigger-bass-splash.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,9 +496,33 @@
         <v>2025-08-12 19:43:18.327</v>
       </c>
     </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>Bigger Bass Splash</v>
+      </c>
+      <c r="B6" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+53.02%</v>
+      </c>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+100.7%</v>
+      </c>
+      <c r="D6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+91.37%</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.5%</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2025-08-12 19:55:48.851</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>